--- a/api/tests/postkz.xlsx
+++ b/api/tests/postkz.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Москва</t>
   </si>
@@ -380,7 +380,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -444,7 +444,9 @@
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
